--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -1,128 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\OneDrive\Документы\AppolloDigital\Киреевск - Опросник\App\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>timeOfRead</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>E-mail</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Marks</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2024-05-30 15:06:00</t>
-  </si>
-  <si>
-    <t>dsv</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2024-05-30 15:57:23</t>
-  </si>
-  <si>
-    <t>ge</t>
-  </si>
-  <si>
-    <t>erg</t>
-  </si>
-  <si>
-    <t>rg</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2024-05-30 15:58:47</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2024-05-30 15:59:08</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2024-05-30 16:02:48</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2024-05-30 16:04:58</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2024-05-30 16:05:25</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -137,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -461,181 +420,388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>timeOfRead</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Marks</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-05-30 15:06:00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>dsv</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-05-30 15:57:23</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ge</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>rg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-05-30 15:58:47</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ge</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>rg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-05-30 15:59:08</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ge</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>rg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-05-30 16:02:48</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ge</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>rg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-05-30 16:04:58</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ge</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>rg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-05-30 16:05:25</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ge</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>rg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-05-30 16:28:11</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ge</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>rg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-05-30 16:41:45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-05-30 16:46:54</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-05-30 16:50:33</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-05-30 16:50:43</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,6 +801,86 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-05-31 15:54:50</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-05-31 17:15:30</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-05-31 17:15:50</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-05-31 17:15:56</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -881,6 +881,806 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-05-31 19:10:46</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-05-31 19:13:35</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-05-31 19:14:52</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-05-31 19:15:21</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024-05-31 19:16:15</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-05-31 19:16:52</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-05-31 19:18:50</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-05-31 19:21:50</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-05-31 19:22:20</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-05-31 19:23:31</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024-05-31 19:25:19</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-05-31 19:25:53</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-05-31 21:52:05</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024-05-31 21:52:25</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-05-31 21:53:32</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-05-31 21:54:34</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-05-31 21:55:05</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-05-31 22:24:58</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-05-31 22:25:35</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-05-31 22:29:04</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2024-05-31 22:31:14</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024-05-31 22:31:21</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2024-05-31 22:31:33</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-05-31 22:32:22</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ewfw</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>wefe</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2024-05-31 22:36:58</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2024-05-31 22:37:23</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2024-05-31 22:38:38</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2024-05-31 22:39:47</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2024-05-31 22:39:56</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2024-05-31 22:40:16</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>fbe</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>revr</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>erre</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2024-05-31 22:40:37</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>rr</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2024-05-31 22:42:08</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2024-05-31 22:45:11</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2024-05-31 22:45:24</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1681,6 +1681,134 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2024-05-31 23:07:16</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>rgerg</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2024-05-31 23:07:27</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>rgerg</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2024-05-31 23:30:18</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>wefwe</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>fwe</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>fwef</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2024-05-31 23:30:35</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>wefwe</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>fwe</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>fwef</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1809,6 +1809,1874 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2024-05-31 23:43:40</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>wfe</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2024-05-31 23:45:30</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>wfe</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2024-05-31 23:45:57</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2024-05-31 23:46:41</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>sf</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2024-05-31 23:47:05</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>wefwef</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>wefwef</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>ewfwef</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:00:11</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:01:49</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:02:44</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:03:38</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:05:26</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:05:29</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:05:31</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:05:35</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:05:37</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:05:41</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:05:49</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:05:56</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:06:20</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:06:22</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:06:24</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:06:28</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:08:00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:08:26</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:08:38</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:09:49</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:09:56</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:09:59</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:10:01</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:10:04</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:10:13</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:10:15</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:10:18</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:10:21</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:10:24</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:10:27</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:10:29</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:10:32</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:10:34</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:10:36</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:10:41</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:10:44</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:10:47</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:10:51</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:10:54</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:10:57</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:11:00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:11:02</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:11:04</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:46:14</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:46:20</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:47:11</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:47:42</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:47:44</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:47:46</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:47:48</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:48:43</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:49:50</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:51:08</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:51:30</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:54:32</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:54:38</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:54:48</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:56:33</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:56:54</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:57:54</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:57:57</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:58:01</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:58:05</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2024-06-01 10:59:30</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:01:10</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:01:14</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:01:58</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:02:39</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:03:14</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:04:15</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:04:17</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:04:55</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:05:39</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:06:08</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:07:17</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:07:49</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:09:12</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:09:19</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:09:35</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:09:48</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:12:20</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:12:53</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:12:59</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:13:02</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:13:35</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:13:44</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3677,6 +3677,1526 @@
         </is>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:15:29</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:16:33</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:19:52</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:20:23</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:20:23</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:20:24</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:20:24</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:20:25</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:20:25</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:20:25</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:20:26</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:20:26</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:20:26</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:20:26</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:20:27</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:20:27</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:20:27</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:20:58</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:20:58</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:21:00</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:21:00</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:21:39</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:21:53</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:21:56</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:22:12</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:29:27</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:29:29</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:30:38</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:31:44</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:31:56</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:35:43</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:35:54</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:35:56</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:35:57</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:35:58</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:36:18</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:36:19</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:36:42</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:36:44</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:36:44</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:36:45</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:37:41</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:37:55</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:38:03</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:38:15</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:38:16</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:38:16</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:38:17</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:38:17</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:38:17</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:38:17</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:39:42</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:40:06</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:41:29</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:41:36</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:43:16</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:43:22</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:43:39</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:43:44</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:43:51</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:43:53</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:44:19</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:44:22</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:44:23</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:44:24</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:44:25</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:44:26</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:50:30</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:51:44</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:51:50</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:51:52</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:51:55</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:51:57</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:51:59</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:52:06</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2024-06-01 11:52:10</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F222"/>
+  <dimension ref="A1:F235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5197,6 +5197,350 @@
         </is>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:15:07</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>fewe</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>ewf</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:15:12</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>fewe</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>ewf</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:15:14</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>fewe</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>ewf</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:17:10</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:33:00</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>esf</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>ef</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:33:26</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:35:11</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>ewf</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:36:30</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>ef</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>ref</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:42:44</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:44:43</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:44:45</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:44:48</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:44:54</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F235"/>
+  <dimension ref="A1:F246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5541,6 +5541,226 @@
         </is>
       </c>
     </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:51:27</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:52:56</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:53:06</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:53:14</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:53:40</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:53:47</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:54:33</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:54:39</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:54:45</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:55:35</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2024-06-01 23:55:59</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F246"/>
+  <dimension ref="A1:F264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5761,6 +5761,366 @@
         </is>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2024-06-02 00:27:35</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2024-06-02 00:30:51</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2024-06-02 00:32:25</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2024-06-02 00:32:54</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2024-06-02 00:33:02</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2024-06-02 00:33:04</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2024-06-02 00:33:24</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2024-06-02 00:33:30</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2024-06-02 00:36:03</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2024-06-02 00:36:39</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2024-06-02 00:36:51</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2024-06-02 00:37:07</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2024-06-02 00:37:28</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2024-06-02 00:37:41</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2024-06-02 00:37:52</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2024-06-02 00:37:55</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2024-06-02 00:38:04</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2024-06-02 00:38:39</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F264"/>
+  <dimension ref="A1:F274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6121,6 +6121,206 @@
         </is>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2024-06-02 09:53:32</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2024-06-02 09:56:05</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2024-06-02 09:57:21</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2024-06-02 09:57:47</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2024-06-02 09:57:53</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2024-06-02 09:58:55</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2024-06-02 09:59:19</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2024-06-02 09:59:50</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2024-06-02 10:01:09</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2024-06-02 10:01:56</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F322"/>
+  <dimension ref="A1:F328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7305,6 +7305,126 @@
         </is>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>2024-06-03 08:03:55</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>2024-06-03 08:05:08</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr"/>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>2024-06-03 08:33:56</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr"/>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2024-06-03 08:34:18</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2024-06-03 08:37:24</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>2024-06-03 08:37:41</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr"/>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F328"/>
+  <dimension ref="A1:F335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7425,6 +7425,170 @@
         </is>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>2024-06-03 09:07:39</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr"/>
+      <c r="D329" t="inlineStr"/>
+      <c r="E329" t="inlineStr"/>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2024-06-03 09:07:50</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr"/>
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>2024-06-03 09:08:47</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>2024-06-03 09:08:47</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr"/>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>2024-06-03 09:24:43</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr"/>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>2024-06-03 10:00:39</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Путинцев Никита А</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>yad@yad.ru</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>+796028349234</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>2024-06-03 10:03:28</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Путинцев Никита А</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>yad@yad.ru</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>+796028349234</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F335"/>
+  <dimension ref="A1:F404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7589,6 +7589,1386 @@
         </is>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>2024-06-03 10:18:45</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>2024-06-03 10:24:18</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr"/>
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2024-06-03 10:25:49</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2024-06-03 10:28:06</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>2024-06-03 10:32:36</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>2024-06-03 10:33:06</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="inlineStr"/>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>2024-06-03 10:33:43</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>2024-06-03 10:34:15</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="inlineStr"/>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>2024-06-03 10:42:58</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>2024-06-03 10:43:43</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr"/>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="inlineStr"/>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>2024-06-03 10:44:39</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr"/>
+      <c r="D346" t="inlineStr"/>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>2024-06-03 10:59:41</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr"/>
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>2024-06-03 11:00:09</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr"/>
+      <c r="D348" t="inlineStr"/>
+      <c r="E348" t="inlineStr"/>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>2024-06-03 11:02:29</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr"/>
+      <c r="D349" t="inlineStr"/>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>2024-06-03 11:04:05</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>2024-06-03 11:08:40</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr"/>
+      <c r="D351" t="inlineStr"/>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>2024-06-03 11:39:44</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr"/>
+      <c r="D352" t="inlineStr"/>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>2024-06-03 11:40:56</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr"/>
+      <c r="D353" t="inlineStr"/>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>2024-06-03 11:41:10</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr"/>
+      <c r="D354" t="inlineStr"/>
+      <c r="E354" t="inlineStr"/>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>2024-06-03 11:42:27</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" t="inlineStr"/>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>2024-06-03 11:45:08</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr"/>
+      <c r="D356" t="inlineStr"/>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>2024-06-03 11:45:35</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>2024-06-03 11:46:09</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr"/>
+      <c r="D358" t="inlineStr"/>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>2024-06-03 11:47:37</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr"/>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>2024-06-03 11:48:00</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr"/>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>2024-06-03 11:48:03</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr"/>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="inlineStr"/>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>2024-06-03 11:50:33</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr"/>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:05:23</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr"/>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:07:48</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr"/>
+      <c r="D364" t="inlineStr"/>
+      <c r="E364" t="inlineStr"/>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:08:36</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr"/>
+      <c r="D365" t="inlineStr"/>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:10:14</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr"/>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="inlineStr"/>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:10:51</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr"/>
+      <c r="D367" t="inlineStr"/>
+      <c r="E367" t="inlineStr"/>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:11:26</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr"/>
+      <c r="D368" t="inlineStr"/>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:11:43</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr"/>
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="inlineStr"/>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:12:24</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr"/>
+      <c r="D370" t="inlineStr"/>
+      <c r="E370" t="inlineStr"/>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:12:44</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr"/>
+      <c r="D371" t="inlineStr"/>
+      <c r="E371" t="inlineStr"/>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:13:35</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr"/>
+      <c r="D372" t="inlineStr"/>
+      <c r="E372" t="inlineStr"/>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:13:37</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr"/>
+      <c r="D373" t="inlineStr"/>
+      <c r="E373" t="inlineStr"/>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:14:55</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr"/>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:34:00</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr"/>
+      <c r="D375" t="inlineStr"/>
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:34:14</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr"/>
+      <c r="D376" t="inlineStr"/>
+      <c r="E376" t="inlineStr"/>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:35:27</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr"/>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="inlineStr"/>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:35:42</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr"/>
+      <c r="D378" t="inlineStr"/>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:39:15</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr"/>
+      <c r="D379" t="inlineStr"/>
+      <c r="E379" t="inlineStr"/>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:44:41</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr"/>
+      <c r="D380" t="inlineStr"/>
+      <c r="E380" t="inlineStr"/>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:48:41</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr"/>
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="inlineStr"/>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:49:15</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr"/>
+      <c r="D382" t="inlineStr"/>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:53:41</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr"/>
+      <c r="D383" t="inlineStr"/>
+      <c r="E383" t="inlineStr"/>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:55:58</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr"/>
+      <c r="D384" t="inlineStr"/>
+      <c r="E384" t="inlineStr"/>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:58:47</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr"/>
+      <c r="D385" t="inlineStr"/>
+      <c r="E385" t="inlineStr"/>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>2024-06-03 13:08:56</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr"/>
+      <c r="D386" t="inlineStr"/>
+      <c r="E386" t="inlineStr"/>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>2024-06-03 13:13:48</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr"/>
+      <c r="D387" t="inlineStr"/>
+      <c r="E387" t="inlineStr"/>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>2024-06-03 13:14:18</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr"/>
+      <c r="D388" t="inlineStr"/>
+      <c r="E388" t="inlineStr"/>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>2024-06-03 13:50:35</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr"/>
+      <c r="D389" t="inlineStr"/>
+      <c r="E389" t="inlineStr"/>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>2024-06-03 13:51:42</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr"/>
+      <c r="D390" t="inlineStr"/>
+      <c r="E390" t="inlineStr"/>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>2024-06-03 13:53:55</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr"/>
+      <c r="D391" t="inlineStr"/>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>2024-06-03 13:55:43</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="inlineStr"/>
+      <c r="E392" t="inlineStr"/>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:01:06</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr"/>
+      <c r="D393" t="inlineStr"/>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:03:12</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr"/>
+      <c r="D394" t="inlineStr"/>
+      <c r="E394" t="inlineStr"/>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:04:55</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr"/>
+      <c r="D395" t="inlineStr"/>
+      <c r="E395" t="inlineStr"/>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:05:49</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr"/>
+      <c r="D396" t="inlineStr"/>
+      <c r="E396" t="inlineStr"/>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:06:02</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="inlineStr"/>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:06:46</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:07:41</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr"/>
+      <c r="D399" t="inlineStr"/>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:08:20</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="inlineStr"/>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:08:44</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr"/>
+      <c r="D401" t="inlineStr"/>
+      <c r="E401" t="inlineStr"/>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:08:57</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr"/>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:09:11</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr"/>
+      <c r="D403" t="inlineStr"/>
+      <c r="E403" t="inlineStr"/>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:09:22</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr"/>
+      <c r="D404" t="inlineStr"/>
+      <c r="E404" t="inlineStr"/>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F404"/>
+  <dimension ref="A1:F414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8969,6 +8969,206 @@
         </is>
       </c>
     </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:12:06</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr"/>
+      <c r="D405" t="inlineStr"/>
+      <c r="E405" t="inlineStr"/>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:12:42</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr"/>
+      <c r="D406" t="inlineStr"/>
+      <c r="E406" t="inlineStr"/>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:14:12</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="inlineStr"/>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:14:30</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr"/>
+      <c r="D408" t="inlineStr"/>
+      <c r="E408" t="inlineStr"/>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:16:09</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr"/>
+      <c r="D409" t="inlineStr"/>
+      <c r="E409" t="inlineStr"/>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:16:34</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:16:44</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr"/>
+      <c r="D411" t="inlineStr"/>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:17:09</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr"/>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:19:32</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr"/>
+      <c r="D413" t="inlineStr"/>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:20:01</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr"/>
+      <c r="D414" t="inlineStr"/>
+      <c r="E414" t="inlineStr"/>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F414"/>
+  <dimension ref="A1:F475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9169,6 +9169,1226 @@
         </is>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:21:48</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="inlineStr"/>
+      <c r="E415" t="inlineStr"/>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:23:04</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr"/>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:23:16</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="inlineStr"/>
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:23:55</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr"/>
+      <c r="D418" t="inlineStr"/>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:24:16</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr"/>
+      <c r="D419" t="inlineStr"/>
+      <c r="E419" t="inlineStr"/>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:24:41</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr"/>
+      <c r="D420" t="inlineStr"/>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:25:34</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr"/>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:34:00</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr"/>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:34:40</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr"/>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:34:53</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="inlineStr"/>
+      <c r="E424" t="inlineStr"/>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:35:53</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr"/>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:36:39</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="inlineStr"/>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:36:53</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr"/>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:37:15</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="inlineStr"/>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:39:03</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr"/>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:41:00</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr"/>
+      <c r="D430" t="inlineStr"/>
+      <c r="E430" t="inlineStr"/>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:41:57</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr"/>
+      <c r="D431" t="inlineStr"/>
+      <c r="E431" t="inlineStr"/>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:42:15</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr"/>
+      <c r="D432" t="inlineStr"/>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:42:51</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr"/>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:43:06</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="inlineStr"/>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:43:21</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:44:07</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr"/>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:44:22</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="inlineStr"/>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:46:18</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr"/>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:50:39</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr"/>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:50:56</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="inlineStr"/>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:51:00</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr"/>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:53:07</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr"/>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:53:16</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="inlineStr"/>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:53:22</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr"/>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:53:41</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr"/>
+      <c r="D445" t="inlineStr"/>
+      <c r="E445" t="inlineStr"/>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:54:25</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr"/>
+      <c r="D446" t="inlineStr"/>
+      <c r="E446" t="inlineStr"/>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:55:34</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="inlineStr"/>
+      <c r="E447" t="inlineStr"/>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:58:56</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr"/>
+      <c r="D448" t="inlineStr"/>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:59:22</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr"/>
+      <c r="D449" t="inlineStr"/>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:01:03</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr"/>
+      <c r="D450" t="inlineStr"/>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:02:30</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr"/>
+      <c r="D451" t="inlineStr"/>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:11:19</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr"/>
+      <c r="D452" t="inlineStr"/>
+      <c r="E452" t="inlineStr"/>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:11:39</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr"/>
+      <c r="D453" t="inlineStr"/>
+      <c r="E453" t="inlineStr"/>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:11:52</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr"/>
+      <c r="D454" t="inlineStr"/>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:12:10</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr"/>
+      <c r="D455" t="inlineStr"/>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:12:36</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr"/>
+      <c r="D456" t="inlineStr"/>
+      <c r="E456" t="inlineStr"/>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:12:54</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr"/>
+      <c r="D457" t="inlineStr"/>
+      <c r="E457" t="inlineStr"/>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:13:06</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr"/>
+      <c r="D458" t="inlineStr"/>
+      <c r="E458" t="inlineStr"/>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:13:21</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr"/>
+      <c r="D459" t="inlineStr"/>
+      <c r="E459" t="inlineStr"/>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:13:30</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr"/>
+      <c r="D460" t="inlineStr"/>
+      <c r="E460" t="inlineStr"/>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:15:02</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr"/>
+      <c r="D461" t="inlineStr"/>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:15:52</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr"/>
+      <c r="D462" t="inlineStr"/>
+      <c r="E462" t="inlineStr"/>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:22:21</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr"/>
+      <c r="D463" t="inlineStr"/>
+      <c r="E463" t="inlineStr"/>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:22:47</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr"/>
+      <c r="D464" t="inlineStr"/>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:23:06</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr"/>
+      <c r="D465" t="inlineStr"/>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:25:56</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr"/>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:27:47</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr"/>
+      <c r="D467" t="inlineStr"/>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:28:17</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:29:13</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr"/>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr"/>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:29:57</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr"/>
+      <c r="D470" t="inlineStr"/>
+      <c r="E470" t="inlineStr"/>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:30:15</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr"/>
+      <c r="D471" t="inlineStr"/>
+      <c r="E471" t="inlineStr"/>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:30:31</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr"/>
+      <c r="D472" t="inlineStr"/>
+      <c r="E472" t="inlineStr"/>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:31:07</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr"/>
+      <c r="D473" t="inlineStr"/>
+      <c r="E473" t="inlineStr"/>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:34:43</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr"/>
+      <c r="D474" t="inlineStr"/>
+      <c r="E474" t="inlineStr"/>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:45:09</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr"/>
+      <c r="D475" t="inlineStr"/>
+      <c r="E475" t="inlineStr"/>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F475"/>
+  <dimension ref="A1:F478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10389,6 +10389,66 @@
         </is>
       </c>
     </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:56:46</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr"/>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr"/>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>2024-06-03 15:57:59</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr"/>
+      <c r="D477" t="inlineStr"/>
+      <c r="E477" t="inlineStr"/>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:00:30</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr"/>
+      <c r="D478" t="inlineStr"/>
+      <c r="E478" t="inlineStr"/>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F478"/>
+  <dimension ref="A1:F493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10449,6 +10449,306 @@
         </is>
       </c>
     </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:01:56</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr"/>
+      <c r="D479" t="inlineStr"/>
+      <c r="E479" t="inlineStr"/>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:05:16</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr"/>
+      <c r="D480" t="inlineStr"/>
+      <c r="E480" t="inlineStr"/>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:06:45</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr"/>
+      <c r="D481" t="inlineStr"/>
+      <c r="E481" t="inlineStr"/>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:08:28</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr"/>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="inlineStr"/>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:11:06</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr"/>
+      <c r="D483" t="inlineStr"/>
+      <c r="E483" t="inlineStr"/>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:11:55</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr"/>
+      <c r="D484" t="inlineStr"/>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:12:51</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr"/>
+      <c r="D485" t="inlineStr"/>
+      <c r="E485" t="inlineStr"/>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:15:26</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr"/>
+      <c r="D486" t="inlineStr"/>
+      <c r="E486" t="inlineStr"/>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:15:52</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr"/>
+      <c r="D487" t="inlineStr"/>
+      <c r="E487" t="inlineStr"/>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:17:46</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr"/>
+      <c r="D488" t="inlineStr"/>
+      <c r="E488" t="inlineStr"/>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:19:09</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr"/>
+      <c r="D489" t="inlineStr"/>
+      <c r="E489" t="inlineStr"/>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:19:33</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr"/>
+      <c r="D490" t="inlineStr"/>
+      <c r="E490" t="inlineStr"/>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:19:59</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr"/>
+      <c r="D491" t="inlineStr"/>
+      <c r="E491" t="inlineStr"/>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:23:53</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr"/>
+      <c r="D492" t="inlineStr"/>
+      <c r="E492" t="inlineStr"/>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:30:32</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr"/>
+      <c r="D493" t="inlineStr"/>
+      <c r="E493" t="inlineStr"/>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F493"/>
+  <dimension ref="A1:F515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10749,6 +10749,446 @@
         </is>
       </c>
     </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:34:15</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="inlineStr"/>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:34:39</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr"/>
+      <c r="D495" t="inlineStr"/>
+      <c r="E495" t="inlineStr"/>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:35:11</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr"/>
+      <c r="D496" t="inlineStr"/>
+      <c r="E496" t="inlineStr"/>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:40:40</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr"/>
+      <c r="D497" t="inlineStr"/>
+      <c r="E497" t="inlineStr"/>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:40:51</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr"/>
+      <c r="D498" t="inlineStr"/>
+      <c r="E498" t="inlineStr"/>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:41:16</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr"/>
+      <c r="D499" t="inlineStr"/>
+      <c r="E499" t="inlineStr"/>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:42:21</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr"/>
+      <c r="D500" t="inlineStr"/>
+      <c r="E500" t="inlineStr"/>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:42:56</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr"/>
+      <c r="D501" t="inlineStr"/>
+      <c r="E501" t="inlineStr"/>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:43:17</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr"/>
+      <c r="D502" t="inlineStr"/>
+      <c r="E502" t="inlineStr"/>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:46:52</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr"/>
+      <c r="D503" t="inlineStr"/>
+      <c r="E503" t="inlineStr"/>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:47:27</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr"/>
+      <c r="D504" t="inlineStr"/>
+      <c r="E504" t="inlineStr"/>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>2024-06-03 17:13:08</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr"/>
+      <c r="D505" t="inlineStr"/>
+      <c r="E505" t="inlineStr"/>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>2024-06-03 17:13:37</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr"/>
+      <c r="D506" t="inlineStr"/>
+      <c r="E506" t="inlineStr"/>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>2024-06-03 17:17:14</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr"/>
+      <c r="D507" t="inlineStr"/>
+      <c r="E507" t="inlineStr"/>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>2024-06-03 17:27:18</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr"/>
+      <c r="D508" t="inlineStr"/>
+      <c r="E508" t="inlineStr"/>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>2024-06-03 17:28:37</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr"/>
+      <c r="D509" t="inlineStr"/>
+      <c r="E509" t="inlineStr"/>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>2024-06-03 17:28:57</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr"/>
+      <c r="D510" t="inlineStr"/>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>2024-06-03 17:31:20</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr"/>
+      <c r="D511" t="inlineStr"/>
+      <c r="E511" t="inlineStr"/>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>2024-06-03 17:31:54</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr"/>
+      <c r="D512" t="inlineStr"/>
+      <c r="E512" t="inlineStr"/>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>2024-06-03 17:55:45</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr"/>
+      <c r="D513" t="inlineStr"/>
+      <c r="E513" t="inlineStr"/>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>2024-06-03 17:58:30</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr"/>
+      <c r="D514" t="inlineStr"/>
+      <c r="E514" t="inlineStr"/>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>2024-06-03 17:58:55</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr"/>
+      <c r="D515" t="inlineStr"/>
+      <c r="E515" t="inlineStr"/>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F515"/>
+  <dimension ref="A1:F567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11189,6 +11189,1046 @@
         </is>
       </c>
     </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:05:20</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr"/>
+      <c r="D516" t="inlineStr"/>
+      <c r="E516" t="inlineStr"/>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:05:50</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr"/>
+      <c r="D517" t="inlineStr"/>
+      <c r="E517" t="inlineStr"/>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:07:34</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr"/>
+      <c r="D518" t="inlineStr"/>
+      <c r="E518" t="inlineStr"/>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:07:56</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr"/>
+      <c r="D519" t="inlineStr"/>
+      <c r="E519" t="inlineStr"/>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:08:20</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr"/>
+      <c r="D520" t="inlineStr"/>
+      <c r="E520" t="inlineStr"/>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:09:26</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr"/>
+      <c r="D521" t="inlineStr"/>
+      <c r="E521" t="inlineStr"/>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:09:56</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr"/>
+      <c r="D522" t="inlineStr"/>
+      <c r="E522" t="inlineStr"/>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:14:33</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="inlineStr"/>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:15:06</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr"/>
+      <c r="D524" t="inlineStr"/>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:15:14</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr"/>
+      <c r="D525" t="inlineStr"/>
+      <c r="E525" t="inlineStr"/>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:18:30</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr"/>
+      <c r="D526" t="inlineStr"/>
+      <c r="E526" t="inlineStr"/>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:19:02</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr"/>
+      <c r="E527" t="inlineStr"/>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:20:10</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr"/>
+      <c r="D528" t="inlineStr"/>
+      <c r="E528" t="inlineStr"/>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:21:57</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr"/>
+      <c r="D529" t="inlineStr"/>
+      <c r="E529" t="inlineStr"/>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:22:13</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr"/>
+      <c r="D530" t="inlineStr"/>
+      <c r="E530" t="inlineStr"/>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:22:32</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr"/>
+      <c r="D531" t="inlineStr"/>
+      <c r="E531" t="inlineStr"/>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:24:00</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr"/>
+      <c r="D532" t="inlineStr"/>
+      <c r="E532" t="inlineStr"/>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:26:10</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr"/>
+      <c r="D533" t="inlineStr"/>
+      <c r="E533" t="inlineStr"/>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:27:24</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr"/>
+      <c r="D534" t="inlineStr"/>
+      <c r="E534" t="inlineStr"/>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:27:35</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr"/>
+      <c r="D535" t="inlineStr"/>
+      <c r="E535" t="inlineStr"/>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:28:35</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr"/>
+      <c r="D536" t="inlineStr"/>
+      <c r="E536" t="inlineStr"/>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:29:19</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr"/>
+      <c r="D537" t="inlineStr"/>
+      <c r="E537" t="inlineStr"/>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:29:52</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr"/>
+      <c r="D538" t="inlineStr"/>
+      <c r="E538" t="inlineStr"/>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:30:23</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr"/>
+      <c r="D539" t="inlineStr"/>
+      <c r="E539" t="inlineStr"/>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:30:41</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr"/>
+      <c r="D540" t="inlineStr"/>
+      <c r="E540" t="inlineStr"/>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:32:26</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr"/>
+      <c r="D541" t="inlineStr"/>
+      <c r="E541" t="inlineStr"/>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:37:19</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr"/>
+      <c r="D542" t="inlineStr"/>
+      <c r="E542" t="inlineStr"/>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:39:00</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr"/>
+      <c r="D543" t="inlineStr"/>
+      <c r="E543" t="inlineStr"/>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:39:08</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr"/>
+      <c r="D544" t="inlineStr"/>
+      <c r="E544" t="inlineStr"/>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:40:16</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr"/>
+      <c r="D545" t="inlineStr"/>
+      <c r="E545" t="inlineStr"/>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:40:55</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr"/>
+      <c r="D546" t="inlineStr"/>
+      <c r="E546" t="inlineStr"/>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:41:51</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr"/>
+      <c r="D547" t="inlineStr"/>
+      <c r="E547" t="inlineStr"/>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:42:27</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr"/>
+      <c r="D548" t="inlineStr"/>
+      <c r="E548" t="inlineStr"/>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:43:29</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr"/>
+      <c r="D549" t="inlineStr"/>
+      <c r="E549" t="inlineStr"/>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:46:20</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr"/>
+      <c r="D550" t="inlineStr"/>
+      <c r="E550" t="inlineStr"/>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:47:29</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr"/>
+      <c r="D551" t="inlineStr"/>
+      <c r="E551" t="inlineStr"/>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:48:20</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr"/>
+      <c r="D552" t="inlineStr"/>
+      <c r="E552" t="inlineStr"/>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:49:48</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr"/>
+      <c r="D553" t="inlineStr"/>
+      <c r="E553" t="inlineStr"/>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:50:23</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr"/>
+      <c r="D554" t="inlineStr"/>
+      <c r="E554" t="inlineStr"/>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:50:57</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr"/>
+      <c r="D555" t="inlineStr"/>
+      <c r="E555" t="inlineStr"/>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:52:54</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr"/>
+      <c r="D556" t="inlineStr"/>
+      <c r="E556" t="inlineStr"/>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:54:50</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr"/>
+      <c r="D557" t="inlineStr"/>
+      <c r="E557" t="inlineStr"/>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:55:54</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr"/>
+      <c r="D558" t="inlineStr"/>
+      <c r="E558" t="inlineStr"/>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:58:13</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr"/>
+      <c r="D559" t="inlineStr"/>
+      <c r="E559" t="inlineStr"/>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:59:16</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr"/>
+      <c r="D560" t="inlineStr"/>
+      <c r="E560" t="inlineStr"/>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:59:52</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr"/>
+      <c r="D561" t="inlineStr"/>
+      <c r="E561" t="inlineStr"/>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>2024-06-03 19:02:56</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr"/>
+      <c r="D562" t="inlineStr"/>
+      <c r="E562" t="inlineStr"/>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>2024-06-03 19:11:27</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr"/>
+      <c r="D563" t="inlineStr"/>
+      <c r="E563" t="inlineStr"/>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>2024-06-03 19:11:51</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr"/>
+      <c r="D564" t="inlineStr"/>
+      <c r="E564" t="inlineStr"/>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>2024-06-03 19:12:37</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr"/>
+      <c r="D565" t="inlineStr"/>
+      <c r="E565" t="inlineStr"/>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>2024-06-03 19:12:45</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr"/>
+      <c r="D566" t="inlineStr"/>
+      <c r="E566" t="inlineStr"/>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>2024-06-03 19:14:01</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr"/>
+      <c r="D567" t="inlineStr"/>
+      <c r="E567" t="inlineStr"/>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -1,92 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\OneDrive\Документы\AppolloDigital\Киреевск - Опросник\App\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>timeOfRead</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>E-mail</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Marks</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2024-06-03 19:26:32</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2024-06-03 19:29:12</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2024-06-03 19:31:29</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2024-06-03 19:31:58</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -101,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -425,80 +420,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>timeOfRead</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Marks</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-06-03 19:26:32</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-06-03 19:29:12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-06-03 19:31:29</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-06-03 19:31:58</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-06-03 19:39:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-06-03 19:54:39</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -1,37 +1,143 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\OneDrive\Документы\AppolloDigital\Киреевск - Опросник\App\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>timeOfRead</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2024-06-03 19:26:32</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2024-06-03 19:29:12</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2024-06-03 19:31:29</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2024-06-03 19:31:58</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2024-06-03 19:39:15</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2024-06-03 19:54:39</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2024-06-03 20:01:24</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2024-06-03 20:18:53</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2024-06-03 20:19:30</t>
+  </si>
+  <si>
+    <t>Путинцев Никита Александрович</t>
+  </si>
+  <si>
+    <t>почта</t>
+  </si>
+  <si>
+    <t>номер</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2024-06-03 20:27:26</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2024-06-03 20:28:25</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +152,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,172 +476,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>timeOfRead</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>E-mail</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Marks</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2024-06-03 19:26:32</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2024-06-03 19:29:12</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2024-06-03 19:31:29</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2024-06-03 19:31:58</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2024-06-03 19:39:15</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2024-06-03 19:54:39</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11415" windowHeight="3960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>_id</t>
   </si>
@@ -30,6 +30,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Surname</t>
+  </si>
+  <si>
     <t>E-mail</t>
   </si>
   <si>
@@ -115,6 +118,57 @@
   </si>
   <si>
     <t>2024-06-03 20:28:25</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2024-06-04 08:27:45</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2024-06-04 08:30:00</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2024-06-04 09:03:24</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2024-06-04 09:03:54</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2024-06-04 09:04:06</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2024-06-04 09:25:47</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2024-06-04 09:34:54</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>тел</t>
   </si>
 </sst>
 </file>
@@ -477,18 +531,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,153 +558,263 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,6 +1072,148 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-06-04 13:47:04</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-06-04 13:52:22</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Путинцев </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>efjwn@dewru</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>94537424332</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-06-04 15:02:31</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-06-04 15:02:31</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024-06-04 15:02:31</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-06-04 15:02:31</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1214,6 +1214,111 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-06-05 11:09:19</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024-06-05 11:37:11</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-06-05 11:40:18</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-06-05 11:41:11</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-06-05 11:46:17</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1319,6 +1319,408 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-06-05 12:23:22</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-06-05 12:25:46</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-06-05 12:25:47</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2024-06-05 12:26:53</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024-06-05 12:27:38</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2024-06-05 12:28:13</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-06-05 12:31:10</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2024-06-05 12:36:36</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2024-06-05 12:40:33</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2024-06-05 12:42:32</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2024-06-05 12:42:44</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2024-06-05 12:42:56</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2024-06-05 12:46:54</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2024-06-05 12:46:55</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2024-06-05 12:47:17</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2024-06-05 12:48:10</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>никита</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>путинцеыв</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>почта</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>тел</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2024-06-05 13:35:58</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>hhj;;;¥¥№~¥₽/₴₤!\)*&amp;^AAADD</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2024-06-05 13:36:08</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>hhj;;;¥¥№~¥₽/₴₤!\)*&amp;^AAADD</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1721,6 +1721,80 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2024-06-05 13:51:46</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>eu</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>io</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>eyu</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>yuopp</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2024-06-05 13:51:55</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>eu</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>io</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>eyu</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>yuopp</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1795,6 +1795,101 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2024-06-05 13:53:48</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2024-06-05 14:00:22</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>huu</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>yiyy</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2234</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>hhcz</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2024-06-05 14:20:32</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>сфс</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ыа</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>цуа</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>цуа</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1890,6 +1890,43 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2024-06-05 15:05:38</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>цуацуа</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>цуа</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>уаца</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ацау</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1927,6 +1927,80 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2024-06-05 15:25:00</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>000000p0</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2024-06-05 15:26:08</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>000000p0</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2001,6 +2001,214 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2024-06-05 16:37:52</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>frge</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2024-06-05 16:38:05</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>frge</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2024-06-05 16:45:51</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>цуа</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2024-06-05 17:21:52</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>м</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2024-06-05 17:55:42</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2024-06-05 21:12:38</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>ца</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2024-06-05 21:23:53</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>few</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2024-06-05 23:50:35</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>wefwe</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
